--- a/posts/L3-TaskAbstraction/Tasks.xlsx
+++ b/posts/L3-TaskAbstraction/Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/RobisonWeb/BCB520/posts/L3-TaskAbstraction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/BCB520/posts/L3-TaskAbstraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EC6A63-3D83-3A43-AB0B-EED2966B15FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744CE3AA-540E-AF4D-AC44-5742E4EE0969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{5CD58B95-234F-4D49-B124-52152B2C3FDB}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{5CD58B95-234F-4D49-B124-52152B2C3FDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Person</t>
   </si>
@@ -52,18 +52,6 @@
     <t>Barrie</t>
   </si>
   <si>
-    <t>Jiyin</t>
-  </si>
-  <si>
-    <t>Ronald</t>
-  </si>
-  <si>
-    <t>Cody</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
     <t>Discover</t>
   </si>
   <si>
@@ -134,6 +122,24 @@
   </si>
   <si>
     <t>Shape</t>
+  </si>
+  <si>
+    <t>Konrad</t>
+  </si>
+  <si>
+    <t>Yaotian</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Heidi</t>
+  </si>
+  <si>
+    <t>Robyn</t>
+  </si>
+  <si>
+    <t>Geraline</t>
   </si>
 </sst>
 </file>
@@ -485,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D28EFF-58D5-EF45-A5C8-8958CD16EDF5}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,22 +511,32 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -545,57 +561,57 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50415260-F676-984A-913A-71875A70FC0A}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -620,67 +636,67 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
